--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.022621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.022621.xlsx_with_dialog_acts.xlsx
@@ -581,12 +581,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1457,12 +1457,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2737,12 +2737,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4547,12 +4547,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4879,12 +4879,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5229,12 +5229,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6211,12 +6211,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6561,12 +6561,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7083,12 +7083,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7407,12 +7407,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8085,12 +8085,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8241,12 +8241,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8355,12 +8355,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8397,12 +8397,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8927,12 +8927,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9007,12 +9007,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9319,12 +9319,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9357,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10077,12 +10077,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10161,12 +10161,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10359,12 +10359,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10439,12 +10439,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10523,12 +10523,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10637,12 +10637,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11003,12 +11003,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11727,12 +11727,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11803,12 +11803,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11879,12 +11879,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12187,12 +12187,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12945,12 +12945,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12987,12 +12987,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13493,12 +13493,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14959,12 +14959,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15571,12 +15571,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16009,12 +16009,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16805,12 +16805,12 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16957,12 +16957,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17033,12 +17033,12 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17185,12 +17185,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18095,12 +18095,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18133,12 +18133,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18423,12 +18423,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18461,12 +18461,12 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18499,12 +18499,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18925,12 +18925,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19001,12 +19001,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19169,12 +19169,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19413,12 +19413,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19455,12 +19455,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19875,12 +19875,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20157,12 +20157,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20275,12 +20275,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20393,12 +20393,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20599,12 +20599,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20637,12 +20637,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20789,12 +20789,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20827,12 +20827,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21861,12 +21861,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22691,12 +22691,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23303,12 +23303,12 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23531,12 +23531,12 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23683,12 +23683,12 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23759,12 +23759,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23915,12 +23915,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24143,12 +24143,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24181,12 +24181,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24257,12 +24257,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24371,12 +24371,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25179,12 +25179,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25263,12 +25263,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25595,12 +25595,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25637,12 +25637,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25721,12 +25721,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25847,12 +25847,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26015,12 +26015,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26833,12 +26833,12 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26947,12 +26947,12 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27449,12 +27449,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27791,12 +27791,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28297,12 +28297,12 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28567,12 +28567,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29219,12 +29219,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29429,12 +29429,12 @@
       <c r="H732" t="inlineStr"/>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29555,12 +29555,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29947,12 +29947,12 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29989,12 +29989,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30267,12 +30267,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30305,12 +30305,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30545,12 +30545,12 @@
       <c r="H760" t="inlineStr"/>
       <c r="I760" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30793,12 +30793,12 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31399,12 +31399,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32137,12 +32137,12 @@
       <c r="H800" t="inlineStr"/>
       <c r="I800" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32251,12 +32251,12 @@
       <c r="H803" t="inlineStr"/>
       <c r="I803" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32293,12 +32293,12 @@
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -32773,12 +32773,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32925,12 +32925,12 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32963,12 +32963,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33001,12 +33001,12 @@
       <c r="H822" t="inlineStr"/>
       <c r="I822" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33739,12 +33739,12 @@
       <c r="H841" t="inlineStr"/>
       <c r="I841" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34245,12 +34245,12 @@
       <c r="H854" t="inlineStr"/>
       <c r="I854" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34283,12 +34283,12 @@
       <c r="H855" t="inlineStr"/>
       <c r="I855" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34397,12 +34397,12 @@
       <c r="H858" t="inlineStr"/>
       <c r="I858" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34763,12 +34763,12 @@
       <c r="H867" t="inlineStr"/>
       <c r="I867" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35565,12 +35565,12 @@
       <c r="H888" t="inlineStr"/>
       <c r="I888" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -35839,12 +35839,12 @@
       <c r="H895" t="inlineStr"/>
       <c r="I895" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36505,12 +36505,12 @@
       <c r="H912" t="inlineStr"/>
       <c r="I912" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36901,12 +36901,12 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37053,12 +37053,12 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37133,12 +37133,12 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37403,12 +37403,12 @@
       <c r="H935" t="inlineStr"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37441,12 +37441,12 @@
       <c r="H936" t="inlineStr"/>
       <c r="I936" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37723,12 +37723,12 @@
       <c r="H943" t="inlineStr"/>
       <c r="I943" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37959,12 +37959,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38127,12 +38127,12 @@
       <c r="H953" t="inlineStr"/>
       <c r="I953" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38283,12 +38283,12 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38401,12 +38401,12 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38439,12 +38439,12 @@
       <c r="H961" t="inlineStr"/>
       <c r="I961" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38911,12 +38911,12 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39101,12 +39101,12 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39143,12 +39143,12 @@
       <c r="H979" t="inlineStr"/>
       <c r="I979" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39501,12 +39501,12 @@
       <c r="H988" t="inlineStr"/>
       <c r="I988" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39851,12 +39851,12 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40533,12 +40533,12 @@
       <c r="H1014" t="inlineStr"/>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41539,12 +41539,12 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41691,12 +41691,12 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42015,12 +42015,12 @@
       <c r="H1051" t="inlineStr"/>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -42053,12 +42053,12 @@
       <c r="H1052" t="inlineStr"/>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42247,12 +42247,12 @@
       <c r="H1057" t="inlineStr"/>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42327,12 +42327,12 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42871,12 +42871,12 @@
       <c r="H1073" t="inlineStr"/>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -42997,12 +42997,12 @@
       <c r="H1076" t="inlineStr"/>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43115,12 +43115,12 @@
       <c r="H1079" t="inlineStr"/>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1079" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43305,12 +43305,12 @@
       <c r="H1084" t="inlineStr"/>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43343,12 +43343,12 @@
       <c r="H1085" t="inlineStr"/>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43545,12 +43545,12 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43823,12 +43823,12 @@
       <c r="H1097" t="inlineStr"/>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43983,12 +43983,12 @@
       <c r="H1101" t="inlineStr"/>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -44633,12 +44633,12 @@
       <c r="H1118" t="inlineStr"/>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44671,12 +44671,12 @@
       <c r="H1119" t="inlineStr"/>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44747,12 +44747,12 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
